--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2290385.62</v>
+        <v>3075550.93</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134728.57</v>
+        <v>139797.77</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219975.29</v>
+        <v>219762.15</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>232790.49</v>
+        <v>232323.16</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369625.85</v>
+        <v>369531.63</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166630.16</v>
+        <v>167552.47</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4366.06</v>
+        <v>4549.73</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>546361.65</v>
+        <v>546108.9300000001</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154912.27</v>
+        <v>154812.61</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1079.47</v>
+        <v>1099.3</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>132445.7</v>
+        <v>131988.28</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139088.16</v>
+        <v>138583.84</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78066.94</v>
+        <v>78129.69</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35365.85</v>
+        <v>34715.26</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23318.14</v>
+        <v>23267.94</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>126742.21</v>
+        <v>165030.73</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49685.63</v>
+        <v>50193.82</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5125.83</v>
+        <v>5194.03</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,57 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4805.92</v>
+        <v>4816.46</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>29700.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8343.389999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9277.120000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4816.46</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>695753.73</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,198 +436,256 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3075550.93</v>
+        <v>165636.85</v>
+      </c>
+      <c r="C2" t="n">
+        <v>197337.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139797.77</v>
+        <v>220860.46</v>
+      </c>
+      <c r="C3" t="n">
+        <v>221699.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219762.15</v>
+        <v>128017.9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>127993.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>232323.16</v>
+        <v>218492.59</v>
+      </c>
+      <c r="C5" t="n">
+        <v>217335.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369531.63</v>
+        <v>8440.059999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8468.639999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>167552.47</v>
+          <t>Argenfunds</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>19056.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4549.73</v>
+        <v>156438.09</v>
+      </c>
+      <c r="C8" t="n">
+        <v>156144.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>546108.9300000001</v>
+        <v>3212.02</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4387.69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154812.61</v>
+        <v>132064.81</v>
+      </c>
+      <c r="C10" t="n">
+        <v>142260.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1099.3</v>
+        <v>138319.15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>138362.63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131988.28</v>
+        <v>544953.29</v>
+      </c>
+      <c r="C12" t="n">
+        <v>555525.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138583.84</v>
+        <v>155193.73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>155940.79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78129.69</v>
+        <v>150203.42</v>
+      </c>
+      <c r="C14" t="n">
+        <v>150378.55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34715.26</v>
+        <v>5232.83</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5156.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23267.94</v>
+        <v>9298.15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9287.01</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165030.73</v>
+        <v>1117.93</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1034.03</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>50193.82</v>
+          <t>IAM Renta Variable</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>61565.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5194.03</v>
+        <v>4786.26</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6575.87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4816.46</v>
+        <v>4786.26</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6575.87</v>
       </c>
     </row>
     <row r="21">
@@ -637,47 +695,99 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29700.2</v>
+        <v>29476.7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>29486.84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8343.389999999999</v>
+        <v>77994.45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>78133.67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9277.120000000001</v>
+        <v>35392.96</v>
+      </c>
+      <c r="C23" t="n">
+        <v>34736.42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4816.46</v>
+        <v>23121.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23265.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
+          <t>Rofex 20 Renta Variable</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>136656.94</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
           <t>Supefondo RV</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>695753.73</v>
+      <c r="B26" t="n">
+        <v>690956.99</v>
+      </c>
+      <c r="C26" t="n">
+        <v>691621.47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>131999.84</v>
+      </c>
+      <c r="C27" t="n">
+        <v>127159.48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2903996.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3178987.1</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,346 +443,261 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165636.85</v>
-      </c>
-      <c r="C2" t="n">
-        <v>197337.63</v>
+        <v>3172411.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220860.46</v>
-      </c>
-      <c r="C3" t="n">
-        <v>221699.36</v>
+        <v>132183.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128017.9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>127993.49</v>
+        <v>197337.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>218492.59</v>
-      </c>
-      <c r="C5" t="n">
-        <v>217335.35</v>
+        <v>221699.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8440.059999999999</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8468.639999999999</v>
+        <v>127993.49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
-        <v>19056.78</v>
+          <t>Alpha Mega</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>217335.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156438.09</v>
-      </c>
-      <c r="C8" t="n">
-        <v>156144.15</v>
+        <v>8468.639999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3212.02</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4387.69</v>
+        <v>19056.78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>132064.81</v>
-      </c>
-      <c r="C10" t="n">
-        <v>142260.66</v>
+        <v>156144.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>138319.15</v>
-      </c>
-      <c r="C11" t="n">
-        <v>138362.63</v>
+        <v>4387.69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>544953.29</v>
-      </c>
-      <c r="C12" t="n">
-        <v>555525.9</v>
+        <v>142260.66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>155193.73</v>
-      </c>
-      <c r="C13" t="n">
-        <v>155940.79</v>
+        <v>138362.63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>150203.42</v>
-      </c>
-      <c r="C14" t="n">
-        <v>150378.55</v>
+        <v>555525.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5232.83</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5156.3</v>
+        <v>155940.79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9298.15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9287.01</v>
+        <v>150378.55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1117.93</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1034.03</v>
+        <v>5156.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>61565.16</v>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9287.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4786.26</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6575.87</v>
+        <v>1034.03</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4786.26</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6575.87</v>
+        <v>61565.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29476.7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>29486.84</v>
+        <v>6575.87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77994.45</v>
-      </c>
-      <c r="C22" t="n">
-        <v>78133.67</v>
+        <v>29486.84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35392.96</v>
-      </c>
-      <c r="C23" t="n">
-        <v>34736.42</v>
+        <v>78133.67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23121.5</v>
-      </c>
-      <c r="C24" t="n">
-        <v>23265.9</v>
+        <v>34736.42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
-        <v>136656.94</v>
+          <t>Premier Renta Variable</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>23265.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>690956.99</v>
-      </c>
-      <c r="C26" t="n">
-        <v>691621.47</v>
+        <v>136656.94</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>131999.84</v>
-      </c>
-      <c r="C27" t="n">
-        <v>127159.48</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2903996.4</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3178987.1</v>
+        <v>691621.47</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,265 +439,338 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3172411.23</v>
+        <v>197337.63</v>
+      </c>
+      <c r="C2" t="n">
+        <v>196831.15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132183.8</v>
+        <v>221699.36</v>
+      </c>
+      <c r="C3" t="n">
+        <v>196327.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197337.63</v>
+        <v>127993.49</v>
+      </c>
+      <c r="C4" t="n">
+        <v>128192.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>221699.36</v>
+        <v>217335.35</v>
+      </c>
+      <c r="C5" t="n">
+        <v>218178.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127993.49</v>
+        <v>8468.639999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8405.610000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217335.35</v>
+        <v>19056.78</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19057.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8468.639999999999</v>
+        <v>156144.15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>155761.69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19056.78</v>
-      </c>
+        <v>4387.69</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156144.15</v>
-      </c>
+        <v>142260.66</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4387.69</v>
-      </c>
+        <v>138362.63</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>142260.66</v>
-      </c>
+        <v>555525.9</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138362.63</v>
+        <v>155940.79</v>
+      </c>
+      <c r="C13" t="n">
+        <v>154529.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>555525.9</v>
+        <v>150378.55</v>
+      </c>
+      <c r="C14" t="n">
+        <v>150329.28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>155940.79</v>
+        <v>5156.3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5129.72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150378.55</v>
+        <v>9287.01</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9324.84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5156.3</v>
+        <v>1034.03</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1067.42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9287.01</v>
+        <v>61565.16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>64384.36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1034.03</v>
+        <v>6575.87</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6617.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61565.16</v>
+        <v>29486.84</v>
+      </c>
+      <c r="C20" t="n">
+        <v>29464.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6575.87</v>
-      </c>
+        <v>78133.67</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29486.84</v>
+        <v>34736.42</v>
+      </c>
+      <c r="C22" t="n">
+        <v>35021.11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78133.67</v>
+        <v>23265.9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23466.91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>34736.42</v>
+        <v>136656.94</v>
+      </c>
+      <c r="C24" t="n">
+        <v>136740.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23265.9</v>
+        <v>691621.47</v>
+      </c>
+      <c r="C25" t="n">
+        <v>687495.29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>136656.94</v>
+        <v>132183.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>117175.09</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>691621.47</v>
+        <v>3172411.23</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2226326.73</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>196831.15</v>
       </c>
+      <c r="D2" t="n">
+        <v>196622.75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>196327.84</v>
       </c>
+      <c r="D3" t="n">
+        <v>195530.65</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>128192.98</v>
       </c>
+      <c r="D4" t="n">
+        <v>128257.75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>218178.8</v>
       </c>
+      <c r="D5" t="n">
+        <v>219119.05</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>8405.610000000001</v>
       </c>
+      <c r="D6" t="n">
+        <v>8388.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>19057.86</v>
       </c>
+      <c r="D7" t="n">
+        <v>19041.74</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>155761.69</v>
       </c>
+      <c r="D8" t="n">
+        <v>154965.87</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -546,6 +572,9 @@
         <v>4387.69</v>
       </c>
       <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>3302.13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -557,6 +586,9 @@
         <v>142260.66</v>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>140939.81</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -568,6 +600,9 @@
         <v>138362.63</v>
       </c>
       <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>144460.37</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -579,6 +614,9 @@
         <v>555525.9</v>
       </c>
       <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>515820.62</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -592,6 +630,9 @@
       <c r="C13" t="n">
         <v>154529.9</v>
       </c>
+      <c r="D13" t="n">
+        <v>155688.48</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -605,6 +646,9 @@
       <c r="C14" t="n">
         <v>150329.28</v>
       </c>
+      <c r="D14" t="n">
+        <v>150293.78</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -618,6 +662,9 @@
       <c r="C15" t="n">
         <v>5129.72</v>
       </c>
+      <c r="D15" t="n">
+        <v>5126.18</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -631,6 +678,9 @@
       <c r="C16" t="n">
         <v>9324.84</v>
       </c>
+      <c r="D16" t="n">
+        <v>9284.43</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -644,6 +694,9 @@
       <c r="C17" t="n">
         <v>1067.42</v>
       </c>
+      <c r="D17" t="n">
+        <v>1176.89</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -657,6 +710,9 @@
       <c r="C18" t="n">
         <v>64384.36</v>
       </c>
+      <c r="D18" t="n">
+        <v>82576.34</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -670,6 +726,9 @@
       <c r="C19" t="n">
         <v>6617.12</v>
       </c>
+      <c r="D19" t="n">
+        <v>7515.05</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -683,6 +742,9 @@
       <c r="C20" t="n">
         <v>29464.8</v>
       </c>
+      <c r="D20" t="n">
+        <v>29550.86</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -694,6 +756,9 @@
         <v>78133.67</v>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>78564.17</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -707,6 +772,9 @@
       <c r="C22" t="n">
         <v>35021.11</v>
       </c>
+      <c r="D22" t="n">
+        <v>35064.67</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -720,6 +788,9 @@
       <c r="C23" t="n">
         <v>23466.91</v>
       </c>
+      <c r="D23" t="n">
+        <v>23173.55</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -733,6 +804,9 @@
       <c r="C24" t="n">
         <v>136740.05</v>
       </c>
+      <c r="D24" t="n">
+        <v>128943.92</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -746,6 +820,9 @@
       <c r="C25" t="n">
         <v>687495.29</v>
       </c>
+      <c r="D25" t="n">
+        <v>687784.23</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -759,6 +836,9 @@
       <c r="C26" t="n">
         <v>117175.09</v>
       </c>
+      <c r="D26" t="n">
+        <v>130049.65</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -771,6 +851,9 @@
       </c>
       <c r="C27" t="n">
         <v>2226326.73</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3121191.54</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>196622.75</v>
       </c>
+      <c r="E2" t="n">
+        <v>196889.67</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>195530.65</v>
       </c>
+      <c r="E3" t="n">
+        <v>195173.65</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>128257.75</v>
       </c>
+      <c r="E4" t="n">
+        <v>127516.24</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>219119.05</v>
       </c>
+      <c r="E5" t="n">
+        <v>218505</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>8388.25</v>
       </c>
+      <c r="E6" t="n">
+        <v>8382.969999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>19041.74</v>
       </c>
+      <c r="E7" t="n">
+        <v>18980.26</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -560,6 +583,9 @@
       </c>
       <c r="D8" t="n">
         <v>154965.87</v>
+      </c>
+      <c r="E8" t="n">
+        <v>155453.09</v>
       </c>
     </row>
     <row r="9">
@@ -575,6 +601,9 @@
       <c r="D9" t="n">
         <v>3302.13</v>
       </c>
+      <c r="E9" t="n">
+        <v>4536.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -589,6 +618,9 @@
       <c r="D10" t="n">
         <v>140939.81</v>
       </c>
+      <c r="E10" t="n">
+        <v>147517.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -603,6 +635,9 @@
       <c r="D11" t="n">
         <v>144460.37</v>
       </c>
+      <c r="E11" t="n">
+        <v>145193.97</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -617,6 +652,9 @@
       <c r="D12" t="n">
         <v>515820.62</v>
       </c>
+      <c r="E12" t="n">
+        <v>565787.85</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -633,6 +671,9 @@
       <c r="D13" t="n">
         <v>155688.48</v>
       </c>
+      <c r="E13" t="n">
+        <v>154753.65</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -649,6 +690,9 @@
       <c r="D14" t="n">
         <v>150293.78</v>
       </c>
+      <c r="E14" t="n">
+        <v>149925.73</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -665,6 +709,9 @@
       <c r="D15" t="n">
         <v>5126.18</v>
       </c>
+      <c r="E15" t="n">
+        <v>5087.79</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -681,6 +728,9 @@
       <c r="D16" t="n">
         <v>9284.43</v>
       </c>
+      <c r="E16" t="n">
+        <v>9334.33</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -697,6 +747,9 @@
       <c r="D17" t="n">
         <v>1176.89</v>
       </c>
+      <c r="E17" t="n">
+        <v>1059.92</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -713,6 +766,9 @@
       <c r="D18" t="n">
         <v>82576.34</v>
       </c>
+      <c r="E18" t="n">
+        <v>86553.49000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -729,6 +785,9 @@
       <c r="D19" t="n">
         <v>7515.05</v>
       </c>
+      <c r="E19" t="n">
+        <v>7523.59</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -744,6 +803,9 @@
       </c>
       <c r="D20" t="n">
         <v>29550.86</v>
+      </c>
+      <c r="E20" t="n">
+        <v>29767.99</v>
       </c>
     </row>
     <row r="21">
@@ -759,6 +821,9 @@
       <c r="D21" t="n">
         <v>78564.17</v>
       </c>
+      <c r="E21" t="n">
+        <v>78142.38</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -775,6 +840,9 @@
       <c r="D22" t="n">
         <v>35064.67</v>
       </c>
+      <c r="E22" t="n">
+        <v>34700.39</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -791,6 +859,9 @@
       <c r="D23" t="n">
         <v>23173.55</v>
       </c>
+      <c r="E23" t="n">
+        <v>23331.44</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -807,6 +878,9 @@
       <c r="D24" t="n">
         <v>128943.92</v>
       </c>
+      <c r="E24" t="n">
+        <v>127051.11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -823,6 +897,7 @@
       <c r="D25" t="n">
         <v>687784.23</v>
       </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -839,6 +914,9 @@
       <c r="D26" t="n">
         <v>130049.65</v>
       </c>
+      <c r="E26" t="n">
+        <v>108311.67</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -854,6 +932,9 @@
       </c>
       <c r="D27" t="n">
         <v>3121191.54</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2491168.52</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>196889.67</v>
       </c>
+      <c r="F2" t="n">
+        <v>196327.68</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>195173.65</v>
       </c>
+      <c r="F3" t="n">
+        <v>195542.25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>127516.24</v>
       </c>
+      <c r="F4" t="n">
+        <v>127580.21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>218505</v>
       </c>
+      <c r="F5" t="n">
+        <v>216817.15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>8382.969999999999</v>
       </c>
+      <c r="F6" t="n">
+        <v>8379.08</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>18980.26</v>
       </c>
+      <c r="F7" t="n">
+        <v>19032.27</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -586,6 +609,9 @@
       </c>
       <c r="E8" t="n">
         <v>155453.09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>155992.71</v>
       </c>
     </row>
     <row r="9">
@@ -604,6 +630,9 @@
       <c r="E9" t="n">
         <v>4536.06</v>
       </c>
+      <c r="F9" t="n">
+        <v>3270.71</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -621,6 +650,9 @@
       <c r="E10" t="n">
         <v>147517.95</v>
       </c>
+      <c r="F10" t="n">
+        <v>160874.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -638,6 +670,9 @@
       <c r="E11" t="n">
         <v>145193.97</v>
       </c>
+      <c r="F11" t="n">
+        <v>144895.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -655,6 +690,9 @@
       <c r="E12" t="n">
         <v>565787.85</v>
       </c>
+      <c r="F12" t="n">
+        <v>561989.3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -674,6 +712,9 @@
       <c r="E13" t="n">
         <v>154753.65</v>
       </c>
+      <c r="F13" t="n">
+        <v>154739.88</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -693,6 +734,9 @@
       <c r="E14" t="n">
         <v>149925.73</v>
       </c>
+      <c r="F14" t="n">
+        <v>149824.79</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -712,6 +756,9 @@
       <c r="E15" t="n">
         <v>5087.79</v>
       </c>
+      <c r="F15" t="n">
+        <v>5158.28</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -731,6 +778,9 @@
       <c r="E16" t="n">
         <v>9334.33</v>
       </c>
+      <c r="F16" t="n">
+        <v>9290.719999999999</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -750,6 +800,9 @@
       <c r="E17" t="n">
         <v>1059.92</v>
       </c>
+      <c r="F17" t="n">
+        <v>1122.16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -769,6 +822,9 @@
       <c r="E18" t="n">
         <v>86553.49000000001</v>
       </c>
+      <c r="F18" t="n">
+        <v>85854.67999999999</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -788,6 +844,9 @@
       <c r="E19" t="n">
         <v>7523.59</v>
       </c>
+      <c r="F19" t="n">
+        <v>7497.68</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -806,6 +865,9 @@
       </c>
       <c r="E20" t="n">
         <v>29767.99</v>
+      </c>
+      <c r="F20" t="n">
+        <v>23552.5</v>
       </c>
     </row>
     <row r="21">
@@ -824,6 +886,9 @@
       <c r="E21" t="n">
         <v>78142.38</v>
       </c>
+      <c r="F21" t="n">
+        <v>78122.42</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -843,6 +908,9 @@
       <c r="E22" t="n">
         <v>34700.39</v>
       </c>
+      <c r="F22" t="n">
+        <v>34770.81</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -862,6 +930,9 @@
       <c r="E23" t="n">
         <v>23331.44</v>
       </c>
+      <c r="F23" t="n">
+        <v>23422.28</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -881,6 +952,9 @@
       <c r="E24" t="n">
         <v>127051.11</v>
       </c>
+      <c r="F24" t="n">
+        <v>136293.64</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -898,6 +972,7 @@
         <v>687784.23</v>
       </c>
       <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -917,6 +992,9 @@
       <c r="E26" t="n">
         <v>108311.67</v>
       </c>
+      <c r="F26" t="n">
+        <v>108710.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -935,6 +1013,9 @@
       </c>
       <c r="E27" t="n">
         <v>2491168.52</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2500351.86</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>196327.68</v>
       </c>
+      <c r="G2" t="n">
+        <v>197238.17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>195542.25</v>
       </c>
+      <c r="G3" t="n">
+        <v>196109.81</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>127580.21</v>
       </c>
+      <c r="G4" t="n">
+        <v>128583.05</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>216817.15</v>
       </c>
+      <c r="G5" t="n">
+        <v>218714.01</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>8379.08</v>
       </c>
+      <c r="G6" t="n">
+        <v>8420.959999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>19032.27</v>
       </c>
+      <c r="G7" t="n">
+        <v>19070.65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -612,6 +635,9 @@
       </c>
       <c r="F8" t="n">
         <v>155992.71</v>
+      </c>
+      <c r="G8" t="n">
+        <v>156474.29</v>
       </c>
     </row>
     <row r="9">
@@ -633,6 +659,9 @@
       <c r="F9" t="n">
         <v>3270.71</v>
       </c>
+      <c r="G9" t="n">
+        <v>3251.74</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -653,6 +682,9 @@
       <c r="F10" t="n">
         <v>160874.8</v>
       </c>
+      <c r="G10" t="n">
+        <v>159268.31</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -673,6 +705,9 @@
       <c r="F11" t="n">
         <v>144895.86</v>
       </c>
+      <c r="G11" t="n">
+        <v>144385.06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -693,6 +728,9 @@
       <c r="F12" t="n">
         <v>561989.3</v>
       </c>
+      <c r="G12" t="n">
+        <v>566895.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -715,6 +753,9 @@
       <c r="F13" t="n">
         <v>154739.88</v>
       </c>
+      <c r="G13" t="n">
+        <v>156255.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -737,6 +778,9 @@
       <c r="F14" t="n">
         <v>149824.79</v>
       </c>
+      <c r="G14" t="n">
+        <v>149725.75</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -759,6 +803,9 @@
       <c r="F15" t="n">
         <v>5158.28</v>
       </c>
+      <c r="G15" t="n">
+        <v>5150.42</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -781,6 +828,9 @@
       <c r="F16" t="n">
         <v>9290.719999999999</v>
       </c>
+      <c r="G16" t="n">
+        <v>9323.620000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -803,6 +853,9 @@
       <c r="F17" t="n">
         <v>1122.16</v>
       </c>
+      <c r="G17" t="n">
+        <v>1083.07</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -825,6 +878,9 @@
       <c r="F18" t="n">
         <v>85854.67999999999</v>
       </c>
+      <c r="G18" t="n">
+        <v>86002.25999999999</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -847,6 +903,9 @@
       <c r="F19" t="n">
         <v>7497.68</v>
       </c>
+      <c r="G19" t="n">
+        <v>7484.13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -868,6 +927,9 @@
       </c>
       <c r="F20" t="n">
         <v>23552.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>23737.25</v>
       </c>
     </row>
     <row r="21">
@@ -889,6 +951,9 @@
       <c r="F21" t="n">
         <v>78122.42</v>
       </c>
+      <c r="G21" t="n">
+        <v>77687.67</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -911,6 +976,9 @@
       <c r="F22" t="n">
         <v>34770.81</v>
       </c>
+      <c r="G22" t="n">
+        <v>35230.64</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -933,6 +1001,9 @@
       <c r="F23" t="n">
         <v>23422.28</v>
       </c>
+      <c r="G23" t="n">
+        <v>23264.37</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -955,6 +1026,9 @@
       <c r="F24" t="n">
         <v>136293.64</v>
       </c>
+      <c r="G24" t="n">
+        <v>137680.47</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -973,6 +1047,7 @@
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -995,6 +1070,9 @@
       <c r="F26" t="n">
         <v>108710.95</v>
       </c>
+      <c r="G26" t="n">
+        <v>109175.49</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1016,6 +1094,9 @@
       </c>
       <c r="F27" t="n">
         <v>2500351.86</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2511036.3</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>197238.17</v>
       </c>
+      <c r="H2" t="n">
+        <v>197459.53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>196109.81</v>
       </c>
+      <c r="H3" t="n">
+        <v>195419.22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>128583.05</v>
       </c>
+      <c r="H4" t="n">
+        <v>128541.64</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>218714.01</v>
       </c>
+      <c r="H5" t="n">
+        <v>218349.55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>8420.959999999999</v>
       </c>
+      <c r="H6" t="n">
+        <v>8452.219999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>19070.65</v>
       </c>
+      <c r="H7" t="n">
+        <v>19107.34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -638,6 +661,9 @@
       </c>
       <c r="G8" t="n">
         <v>156474.29</v>
+      </c>
+      <c r="H8" t="n">
+        <v>154957.28</v>
       </c>
     </row>
     <row r="9">
@@ -662,6 +688,9 @@
       <c r="G9" t="n">
         <v>3251.74</v>
       </c>
+      <c r="H9" t="n">
+        <v>4596.14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -685,6 +714,9 @@
       <c r="G10" t="n">
         <v>159268.31</v>
       </c>
+      <c r="H10" t="n">
+        <v>160159.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -708,6 +740,9 @@
       <c r="G11" t="n">
         <v>144385.06</v>
       </c>
+      <c r="H11" t="n">
+        <v>144602.24</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -731,6 +766,9 @@
       <c r="G12" t="n">
         <v>566895.1</v>
       </c>
+      <c r="H12" t="n">
+        <v>565953.63</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -756,6 +794,9 @@
       <c r="G13" t="n">
         <v>156255.5</v>
       </c>
+      <c r="H13" t="n">
+        <v>156361.59</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -781,6 +822,9 @@
       <c r="G14" t="n">
         <v>149725.75</v>
       </c>
+      <c r="H14" t="n">
+        <v>149869.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -806,6 +850,9 @@
       <c r="G15" t="n">
         <v>5150.42</v>
       </c>
+      <c r="H15" t="n">
+        <v>5069.72</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -831,6 +878,9 @@
       <c r="G16" t="n">
         <v>9323.620000000001</v>
       </c>
+      <c r="H16" t="n">
+        <v>9322.43</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -856,6 +906,9 @@
       <c r="G17" t="n">
         <v>1083.07</v>
       </c>
+      <c r="H17" t="n">
+        <v>1026.38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -881,6 +934,9 @@
       <c r="G18" t="n">
         <v>86002.25999999999</v>
       </c>
+      <c r="H18" t="n">
+        <v>101956.23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -906,6 +962,9 @@
       <c r="G19" t="n">
         <v>7484.13</v>
       </c>
+      <c r="H19" t="n">
+        <v>7499.49</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -930,6 +989,9 @@
       </c>
       <c r="G20" t="n">
         <v>23737.25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>23820.82</v>
       </c>
     </row>
     <row r="21">
@@ -954,6 +1016,9 @@
       <c r="G21" t="n">
         <v>77687.67</v>
       </c>
+      <c r="H21" t="n">
+        <v>77932.28999999999</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -979,6 +1044,9 @@
       <c r="G22" t="n">
         <v>35230.64</v>
       </c>
+      <c r="H22" t="n">
+        <v>34699.61</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1004,6 +1072,9 @@
       <c r="G23" t="n">
         <v>23264.37</v>
       </c>
+      <c r="H23" t="n">
+        <v>23187.01</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1028,6 +1099,9 @@
       </c>
       <c r="G24" t="n">
         <v>137680.47</v>
+      </c>
+      <c r="H24" t="n">
+        <v>137667.53</v>
       </c>
     </row>
     <row r="25">
@@ -1048,6 +1122,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1073,6 +1148,9 @@
       <c r="G26" t="n">
         <v>109175.49</v>
       </c>
+      <c r="H26" t="n">
+        <v>109826.54</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1097,6 +1175,9 @@
       </c>
       <c r="G27" t="n">
         <v>2511036.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2526010.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>197459.53</v>
       </c>
+      <c r="I2" t="n">
+        <v>197360.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>195419.22</v>
       </c>
+      <c r="I3" t="n">
+        <v>196360.91</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>128541.64</v>
       </c>
+      <c r="I4" t="n">
+        <v>128045.05</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>218349.55</v>
       </c>
+      <c r="I5" t="n">
+        <v>217323.52</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>8452.219999999999</v>
       </c>
+      <c r="I6" t="n">
+        <v>8409.83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>19107.34</v>
       </c>
+      <c r="I7" t="n">
+        <v>19079.16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -664,6 +687,9 @@
       </c>
       <c r="H8" t="n">
         <v>154957.28</v>
+      </c>
+      <c r="I8" t="n">
+        <v>156653.77</v>
       </c>
     </row>
     <row r="9">
@@ -691,6 +717,9 @@
       <c r="H9" t="n">
         <v>4596.14</v>
       </c>
+      <c r="I9" t="n">
+        <v>4746.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -717,6 +746,9 @@
       <c r="H10" t="n">
         <v>160159.02</v>
       </c>
+      <c r="I10" t="n">
+        <v>159905.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -743,6 +775,9 @@
       <c r="H11" t="n">
         <v>144602.24</v>
       </c>
+      <c r="I11" t="n">
+        <v>144874.91</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -769,6 +804,9 @@
       <c r="H12" t="n">
         <v>565953.63</v>
       </c>
+      <c r="I12" t="n">
+        <v>568438.04</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -797,6 +835,9 @@
       <c r="H13" t="n">
         <v>156361.59</v>
       </c>
+      <c r="I13" t="n">
+        <v>154626.71</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -825,6 +866,9 @@
       <c r="H14" t="n">
         <v>149869.5</v>
       </c>
+      <c r="I14" t="n">
+        <v>149719.87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -853,6 +897,9 @@
       <c r="H15" t="n">
         <v>5069.72</v>
       </c>
+      <c r="I15" t="n">
+        <v>4989.4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -881,6 +928,9 @@
       <c r="H16" t="n">
         <v>9322.43</v>
       </c>
+      <c r="I16" t="n">
+        <v>9338.58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -909,6 +959,9 @@
       <c r="H17" t="n">
         <v>1026.38</v>
       </c>
+      <c r="I17" t="n">
+        <v>1901.62</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -937,6 +990,9 @@
       <c r="H18" t="n">
         <v>101956.23</v>
       </c>
+      <c r="I18" t="n">
+        <v>102204.28</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -965,6 +1021,9 @@
       <c r="H19" t="n">
         <v>7499.49</v>
       </c>
+      <c r="I19" t="n">
+        <v>7494.03</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -992,6 +1051,9 @@
       </c>
       <c r="H20" t="n">
         <v>23820.82</v>
+      </c>
+      <c r="I20" t="n">
+        <v>23598.72</v>
       </c>
     </row>
     <row r="21">
@@ -1019,6 +1081,9 @@
       <c r="H21" t="n">
         <v>77932.28999999999</v>
       </c>
+      <c r="I21" t="n">
+        <v>78340.53</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1047,6 +1112,9 @@
       <c r="H22" t="n">
         <v>34699.61</v>
       </c>
+      <c r="I22" t="n">
+        <v>34686.97</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1075,6 +1143,9 @@
       <c r="H23" t="n">
         <v>23187.01</v>
       </c>
+      <c r="I23" t="n">
+        <v>23246.49</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1102,6 +1173,9 @@
       </c>
       <c r="H24" t="n">
         <v>137667.53</v>
+      </c>
+      <c r="I24" t="n">
+        <v>137917.67</v>
       </c>
     </row>
     <row r="25">
@@ -1123,6 +1197,7 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1151,6 +1226,9 @@
       <c r="H26" t="n">
         <v>109826.54</v>
       </c>
+      <c r="I26" t="n">
+        <v>109967.93</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1178,6 +1256,9 @@
       </c>
       <c r="H27" t="n">
         <v>2526010.41</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2529262.34</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>197360.66</v>
       </c>
+      <c r="J2" t="n">
+        <v>151723.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>196360.91</v>
       </c>
+      <c r="J3" t="n">
+        <v>195042.19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>128045.05</v>
       </c>
+      <c r="J4" t="n">
+        <v>128251.7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>217323.52</v>
       </c>
+      <c r="J5" t="n">
+        <v>217401.82</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>8409.83</v>
       </c>
+      <c r="J6" t="n">
+        <v>8382.139999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>19079.16</v>
       </c>
+      <c r="J7" t="n">
+        <v>19020.16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -690,6 +713,9 @@
       </c>
       <c r="I8" t="n">
         <v>156653.77</v>
+      </c>
+      <c r="J8" t="n">
+        <v>155208.66</v>
       </c>
     </row>
     <row r="9">
@@ -720,6 +746,9 @@
       <c r="I9" t="n">
         <v>4746.6</v>
       </c>
+      <c r="J9" t="n">
+        <v>4771.96</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -749,6 +778,9 @@
       <c r="I10" t="n">
         <v>159905.02</v>
       </c>
+      <c r="J10" t="n">
+        <v>142878.29</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -778,6 +810,9 @@
       <c r="I11" t="n">
         <v>144874.91</v>
       </c>
+      <c r="J11" t="n">
+        <v>133332.36</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -807,6 +842,9 @@
       <c r="I12" t="n">
         <v>568438.04</v>
       </c>
+      <c r="J12" t="n">
+        <v>567920.39</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -838,6 +876,9 @@
       <c r="I13" t="n">
         <v>154626.71</v>
       </c>
+      <c r="J13" t="n">
+        <v>154319.33</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -869,6 +910,9 @@
       <c r="I14" t="n">
         <v>149719.87</v>
       </c>
+      <c r="J14" t="n">
+        <v>149984.49</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -900,6 +944,9 @@
       <c r="I15" t="n">
         <v>4989.4</v>
       </c>
+      <c r="J15" t="n">
+        <v>4950.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -931,6 +978,9 @@
       <c r="I16" t="n">
         <v>9338.58</v>
       </c>
+      <c r="J16" t="n">
+        <v>9289.49</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -962,6 +1012,9 @@
       <c r="I17" t="n">
         <v>1901.62</v>
       </c>
+      <c r="J17" t="n">
+        <v>1849.94</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -993,6 +1046,9 @@
       <c r="I18" t="n">
         <v>102204.28</v>
       </c>
+      <c r="J18" t="n">
+        <v>102099.98</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1024,6 +1080,9 @@
       <c r="I19" t="n">
         <v>7494.03</v>
       </c>
+      <c r="J19" t="n">
+        <v>7481.59</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1054,6 +1113,9 @@
       </c>
       <c r="I20" t="n">
         <v>23598.72</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11655.01</v>
       </c>
     </row>
     <row r="21">
@@ -1084,6 +1146,9 @@
       <c r="I21" t="n">
         <v>78340.53</v>
       </c>
+      <c r="J21" t="n">
+        <v>77835.47</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1115,6 +1180,9 @@
       <c r="I22" t="n">
         <v>34686.97</v>
       </c>
+      <c r="J22" t="n">
+        <v>34889.34</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1146,6 +1214,9 @@
       <c r="I23" t="n">
         <v>23246.49</v>
       </c>
+      <c r="J23" t="n">
+        <v>23457.94</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1176,6 +1247,9 @@
       </c>
       <c r="I24" t="n">
         <v>137917.67</v>
+      </c>
+      <c r="J24" t="n">
+        <v>137824.68</v>
       </c>
     </row>
     <row r="25">
@@ -1198,6 +1272,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1229,6 +1304,9 @@
       <c r="I26" t="n">
         <v>109967.93</v>
       </c>
+      <c r="J26" t="n">
+        <v>106068.31</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1259,6 +1337,9 @@
       </c>
       <c r="I27" t="n">
         <v>2529262.34</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2439571.13</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>151723.7</v>
       </c>
+      <c r="K2" t="n">
+        <v>151297.83</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>195042.19</v>
       </c>
+      <c r="K3" t="n">
+        <v>195047.2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>128251.7</v>
       </c>
+      <c r="K4" t="n">
+        <v>127525.52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>217401.82</v>
       </c>
+      <c r="K5" t="n">
+        <v>217098.82</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>8382.139999999999</v>
       </c>
+      <c r="K6" t="n">
+        <v>8349.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>19020.16</v>
       </c>
+      <c r="K7" t="n">
+        <v>2273.66</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -716,6 +739,9 @@
       </c>
       <c r="J8" t="n">
         <v>155208.66</v>
+      </c>
+      <c r="K8" t="n">
+        <v>155161.67</v>
       </c>
     </row>
     <row r="9">
@@ -749,6 +775,9 @@
       <c r="J9" t="n">
         <v>4771.96</v>
       </c>
+      <c r="K9" t="n">
+        <v>3299.39</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -781,6 +810,9 @@
       <c r="J10" t="n">
         <v>142878.29</v>
       </c>
+      <c r="K10" t="n">
+        <v>130503.71</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -813,6 +845,9 @@
       <c r="J11" t="n">
         <v>133332.36</v>
       </c>
+      <c r="K11" t="n">
+        <v>119921.41</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -845,6 +880,9 @@
       <c r="J12" t="n">
         <v>567920.39</v>
       </c>
+      <c r="K12" t="n">
+        <v>565770.05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -879,6 +917,9 @@
       <c r="J13" t="n">
         <v>154319.33</v>
       </c>
+      <c r="K13" t="n">
+        <v>154566.38</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -913,6 +954,9 @@
       <c r="J14" t="n">
         <v>149984.49</v>
       </c>
+      <c r="K14" t="n">
+        <v>150176.13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -947,6 +991,9 @@
       <c r="J15" t="n">
         <v>4950.5</v>
       </c>
+      <c r="K15" t="n">
+        <v>5054.21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -981,6 +1028,9 @@
       <c r="J16" t="n">
         <v>9289.49</v>
       </c>
+      <c r="K16" t="n">
+        <v>9340.18</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1015,6 +1065,9 @@
       <c r="J17" t="n">
         <v>1849.94</v>
       </c>
+      <c r="K17" t="n">
+        <v>1848.77</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1049,6 +1102,9 @@
       <c r="J18" t="n">
         <v>102099.98</v>
       </c>
+      <c r="K18" t="n">
+        <v>102020.68</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1083,6 +1139,9 @@
       <c r="J19" t="n">
         <v>7481.59</v>
       </c>
+      <c r="K19" t="n">
+        <v>7482.02</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1116,6 +1175,9 @@
       </c>
       <c r="J20" t="n">
         <v>11655.01</v>
+      </c>
+      <c r="K20" t="n">
+        <v>11827.11</v>
       </c>
     </row>
     <row r="21">
@@ -1149,6 +1211,9 @@
       <c r="J21" t="n">
         <v>77835.47</v>
       </c>
+      <c r="K21" t="n">
+        <v>77863.92</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1183,6 +1248,9 @@
       <c r="J22" t="n">
         <v>34889.34</v>
       </c>
+      <c r="K22" t="n">
+        <v>34839.16</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1217,6 +1285,9 @@
       <c r="J23" t="n">
         <v>23457.94</v>
       </c>
+      <c r="K23" t="n">
+        <v>23178.72</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1250,6 +1321,9 @@
       </c>
       <c r="J24" t="n">
         <v>137824.68</v>
+      </c>
+      <c r="K24" t="n">
+        <v>138260.61</v>
       </c>
     </row>
     <row r="25">
@@ -1273,6 +1347,7 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1307,6 +1382,9 @@
       <c r="J26" t="n">
         <v>106068.31</v>
       </c>
+      <c r="K26" t="n">
+        <v>104030.72</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1340,6 +1418,9 @@
       </c>
       <c r="J27" t="n">
         <v>2439571.13</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2392706.55</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>151297.83</v>
       </c>
+      <c r="L2" t="n">
+        <v>46790.47</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>195047.2</v>
       </c>
+      <c r="L3" t="n">
+        <v>196633.22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>127525.52</v>
       </c>
+      <c r="L4" t="n">
+        <v>128583.97</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>217098.82</v>
       </c>
+      <c r="L5" t="n">
+        <v>218661.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>8349.4</v>
       </c>
+      <c r="L6" t="n">
+        <v>8470.290000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>2273.66</v>
       </c>
+      <c r="L7" t="n">
+        <v>2281.55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -742,6 +765,9 @@
       </c>
       <c r="K8" t="n">
         <v>155161.67</v>
+      </c>
+      <c r="L8" t="n">
+        <v>155896.72</v>
       </c>
     </row>
     <row r="9">
@@ -778,6 +804,9 @@
       <c r="K9" t="n">
         <v>3299.39</v>
       </c>
+      <c r="L9" t="n">
+        <v>3376.19</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -813,6 +842,9 @@
       <c r="K10" t="n">
         <v>130503.71</v>
       </c>
+      <c r="L10" t="n">
+        <v>130861.24</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -848,6 +880,9 @@
       <c r="K11" t="n">
         <v>119921.41</v>
       </c>
+      <c r="L11" t="n">
+        <v>119907.64</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -883,6 +918,9 @@
       <c r="K12" t="n">
         <v>565770.05</v>
       </c>
+      <c r="L12" t="n">
+        <v>556405.55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -920,6 +958,9 @@
       <c r="K13" t="n">
         <v>154566.38</v>
       </c>
+      <c r="L13" t="n">
+        <v>155577.83</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -957,6 +998,9 @@
       <c r="K14" t="n">
         <v>150176.13</v>
       </c>
+      <c r="L14" t="n">
+        <v>149823.94</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -994,6 +1038,9 @@
       <c r="K15" t="n">
         <v>5054.21</v>
       </c>
+      <c r="L15" t="n">
+        <v>4999.73</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1031,6 +1078,9 @@
       <c r="K16" t="n">
         <v>9340.18</v>
       </c>
+      <c r="L16" t="n">
+        <v>9285.66</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1068,6 +1118,9 @@
       <c r="K17" t="n">
         <v>1848.77</v>
       </c>
+      <c r="L17" t="n">
+        <v>1742.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1105,6 +1158,9 @@
       <c r="K18" t="n">
         <v>102020.68</v>
       </c>
+      <c r="L18" t="n">
+        <v>101343.11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1142,6 +1198,9 @@
       <c r="K19" t="n">
         <v>7482.02</v>
       </c>
+      <c r="L19" t="n">
+        <v>7508.14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1178,6 +1237,9 @@
       </c>
       <c r="K20" t="n">
         <v>11827.11</v>
+      </c>
+      <c r="L20" t="n">
+        <v>11695.07</v>
       </c>
     </row>
     <row r="21">
@@ -1214,6 +1276,9 @@
       <c r="K21" t="n">
         <v>77863.92</v>
       </c>
+      <c r="L21" t="n">
+        <v>78353.78</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1251,6 +1316,9 @@
       <c r="K22" t="n">
         <v>34839.16</v>
       </c>
+      <c r="L22" t="n">
+        <v>35058.9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1288,6 +1356,9 @@
       <c r="K23" t="n">
         <v>23178.72</v>
       </c>
+      <c r="L23" t="n">
+        <v>23345.59</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1324,6 +1395,9 @@
       </c>
       <c r="K24" t="n">
         <v>138260.61</v>
+      </c>
+      <c r="L24" t="n">
+        <v>138175.71</v>
       </c>
     </row>
     <row r="25">
@@ -1348,6 +1422,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1385,6 +1460,9 @@
       <c r="K26" t="n">
         <v>104030.72</v>
       </c>
+      <c r="L26" t="n">
+        <v>99338.16</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1421,6 +1499,9 @@
       </c>
       <c r="K27" t="n">
         <v>2392706.55</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2284777.7</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/EDN.xlsx
+++ b/backend/src/excel_handler/files/EDN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>46790.47</v>
       </c>
+      <c r="M2" t="n">
+        <v>46812.72</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>196633.22</v>
       </c>
+      <c r="M3" t="n">
+        <v>195378.78</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>128583.97</v>
       </c>
+      <c r="M4" t="n">
+        <v>127533.67</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>218661.3</v>
       </c>
+      <c r="M5" t="n">
+        <v>216886.15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>8470.290000000001</v>
       </c>
+      <c r="M6" t="n">
+        <v>8338.969999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>2281.55</v>
       </c>
+      <c r="M7" t="n">
+        <v>2285.55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -768,6 +791,9 @@
       </c>
       <c r="L8" t="n">
         <v>155896.72</v>
+      </c>
+      <c r="M8" t="n">
+        <v>156306.5</v>
       </c>
     </row>
     <row r="9">
@@ -807,6 +833,9 @@
       <c r="L9" t="n">
         <v>3376.19</v>
       </c>
+      <c r="M9" t="n">
+        <v>4706.65</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -845,6 +874,9 @@
       <c r="L10" t="n">
         <v>130861.24</v>
       </c>
+      <c r="M10" t="n">
+        <v>130253.53</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -883,6 +915,9 @@
       <c r="L11" t="n">
         <v>119907.64</v>
       </c>
+      <c r="M11" t="n">
+        <v>120433.08</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -921,6 +956,9 @@
       <c r="L12" t="n">
         <v>556405.55</v>
       </c>
+      <c r="M12" t="n">
+        <v>544572</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -961,6 +999,9 @@
       <c r="L13" t="n">
         <v>155577.83</v>
       </c>
+      <c r="M13" t="n">
+        <v>155896.67</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1001,6 +1042,9 @@
       <c r="L14" t="n">
         <v>149823.94</v>
       </c>
+      <c r="M14" t="n">
+        <v>150235.27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1041,6 +1085,9 @@
       <c r="L15" t="n">
         <v>4999.73</v>
       </c>
+      <c r="M15" t="n">
+        <v>5189.38</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1081,6 +1128,9 @@
       <c r="L16" t="n">
         <v>9285.66</v>
       </c>
+      <c r="M16" t="n">
+        <v>9336.040000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1121,6 +1171,9 @@
       <c r="L17" t="n">
         <v>1742.1</v>
       </c>
+      <c r="M17" t="n">
+        <v>1606.58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1161,6 +1214,9 @@
       <c r="L18" t="n">
         <v>101343.11</v>
       </c>
+      <c r="M18" t="n">
+        <v>89368.39</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1201,6 +1257,9 @@
       <c r="L19" t="n">
         <v>7508.14</v>
       </c>
+      <c r="M19" t="n">
+        <v>7519.15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1240,6 +1299,9 @@
       </c>
       <c r="L20" t="n">
         <v>11695.07</v>
+      </c>
+      <c r="M20" t="n">
+        <v>11494.17</v>
       </c>
     </row>
     <row r="21">
@@ -1279,6 +1341,9 @@
       <c r="L21" t="n">
         <v>78353.78</v>
       </c>
+      <c r="M21" t="n">
+        <v>78046.99000000001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1319,6 +1384,9 @@
       <c r="L22" t="n">
         <v>35058.9</v>
       </c>
+      <c r="M22" t="n">
+        <v>34186.11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1359,6 +1427,9 @@
       <c r="L23" t="n">
         <v>23345.59</v>
       </c>
+      <c r="M23" t="n">
+        <v>23294.44</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1398,6 +1469,9 @@
       </c>
       <c r="L24" t="n">
         <v>138175.71</v>
+      </c>
+      <c r="M24" t="n">
+        <v>134251.64</v>
       </c>
     </row>
     <row r="25">
@@ -1423,6 +1497,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1463,6 +1538,9 @@
       <c r="L26" t="n">
         <v>99338.16</v>
       </c>
+      <c r="M26" t="n">
+        <v>97997.06</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1502,6 +1580,9 @@
       </c>
       <c r="L27" t="n">
         <v>2284777.7</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2253932.43</v>
       </c>
     </row>
   </sheetData>
